--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ndp-Fzd4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ndp-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,10 +540,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.05188266666666667</v>
+        <v>0.02640533333333334</v>
       </c>
       <c r="H2">
-        <v>0.155648</v>
+        <v>0.07921600000000001</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.38723566666667</v>
+        <v>29.75868033333333</v>
       </c>
       <c r="N2">
-        <v>94.16170700000001</v>
+        <v>89.27604099999999</v>
       </c>
       <c r="O2">
-        <v>0.5539598599114094</v>
+        <v>0.4948552779010537</v>
       </c>
       <c r="P2">
-        <v>0.5539598599114095</v>
+        <v>0.4948552779010535</v>
       </c>
       <c r="Q2">
-        <v>1.628453485681778</v>
+        <v>0.7857878737617778</v>
       </c>
       <c r="R2">
-        <v>14.656081371136</v>
+        <v>7.072090863856</v>
       </c>
       <c r="S2">
-        <v>0.5539598599114094</v>
+        <v>0.4948552779010537</v>
       </c>
       <c r="T2">
-        <v>0.5539598599114095</v>
+        <v>0.4948552779010535</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,10 +602,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.05188266666666667</v>
+        <v>0.02640533333333334</v>
       </c>
       <c r="H3">
-        <v>0.155648</v>
+        <v>0.07921600000000001</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +626,22 @@
         <v>52.665751</v>
       </c>
       <c r="O3">
-        <v>0.3098362697066353</v>
+        <v>0.2919251856942525</v>
       </c>
       <c r="P3">
-        <v>0.3098362697066353</v>
+        <v>0.2919251856942524</v>
       </c>
       <c r="Q3">
-        <v>0.9108132012942223</v>
+        <v>0.4635522368017778</v>
       </c>
       <c r="R3">
-        <v>8.197318811648001</v>
+        <v>4.171970131216001</v>
       </c>
       <c r="S3">
-        <v>0.3098362697066353</v>
+        <v>0.2919251856942525</v>
       </c>
       <c r="T3">
-        <v>0.3098362697066353</v>
+        <v>0.2919251856942524</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,7 +655,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -658,10 +664,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.05188266666666667</v>
+        <v>0.02640533333333334</v>
       </c>
       <c r="H4">
-        <v>0.155648</v>
+        <v>0.07921600000000001</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +676,158 @@
         <v>1</v>
       </c>
       <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.1421396666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.426419</v>
+      </c>
+      <c r="O4">
+        <v>0.002363631836533717</v>
+      </c>
+      <c r="P4">
+        <v>0.002363631836533717</v>
+      </c>
+      <c r="Q4">
+        <v>0.003753245278222223</v>
+      </c>
+      <c r="R4">
+        <v>0.033779207504</v>
+      </c>
+      <c r="S4">
+        <v>0.002363631836533717</v>
+      </c>
+      <c r="T4">
+        <v>0.002363631836533717</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.02640533333333334</v>
+      </c>
+      <c r="H5">
+        <v>0.07921600000000001</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
         <v>3</v>
       </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>7.717279333333334</v>
-      </c>
-      <c r="N4">
-        <v>23.151838</v>
-      </c>
-      <c r="O4">
-        <v>0.1362038703819552</v>
-      </c>
-      <c r="P4">
-        <v>0.1362038703819552</v>
-      </c>
-      <c r="Q4">
-        <v>0.4003930312248889</v>
-      </c>
-      <c r="R4">
-        <v>3.603537281024</v>
-      </c>
-      <c r="S4">
-        <v>0.1362038703819552</v>
-      </c>
-      <c r="T4">
-        <v>0.1362038703819552</v>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>12.42872866666667</v>
+      </c>
+      <c r="N5">
+        <v>37.286186</v>
+      </c>
+      <c r="O5">
+        <v>0.2066765699758167</v>
+      </c>
+      <c r="P5">
+        <v>0.2066765699758166</v>
+      </c>
+      <c r="Q5">
+        <v>0.3281847233528889</v>
+      </c>
+      <c r="R5">
+        <v>2.953662510176001</v>
+      </c>
+      <c r="S5">
+        <v>0.2066765699758167</v>
+      </c>
+      <c r="T5">
+        <v>0.2066765699758166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.02640533333333334</v>
+      </c>
+      <c r="H6">
+        <v>0.07921600000000001</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.251329</v>
+      </c>
+      <c r="N6">
+        <v>0.753987</v>
+      </c>
+      <c r="O6">
+        <v>0.004179334592343558</v>
+      </c>
+      <c r="P6">
+        <v>0.004179334592343557</v>
+      </c>
+      <c r="Q6">
+        <v>0.006636426021333333</v>
+      </c>
+      <c r="R6">
+        <v>0.05972783419200001</v>
+      </c>
+      <c r="S6">
+        <v>0.004179334592343558</v>
+      </c>
+      <c r="T6">
+        <v>0.004179334592343557</v>
       </c>
     </row>
   </sheetData>
